--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H2">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I2">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J2">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>1.7578377431825</v>
+        <v>0.867445520457</v>
       </c>
       <c r="R2">
-        <v>7.031350972729999</v>
+        <v>3.469782081828</v>
       </c>
       <c r="S2">
-        <v>0.1139032533482551</v>
+        <v>0.1620431269809135</v>
       </c>
       <c r="T2">
-        <v>0.0764542638906668</v>
+        <v>0.1174790206501266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H3">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I3">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J3">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
-        <v>0.1393241335058333</v>
+        <v>0.084950048977</v>
       </c>
       <c r="R3">
-        <v>0.835944801035</v>
+        <v>0.509700293862</v>
       </c>
       <c r="S3">
-        <v>0.009027836691860969</v>
+        <v>0.01586909062157893</v>
       </c>
       <c r="T3">
-        <v>0.009089511342021159</v>
+        <v>0.01725730606010945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H4">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I4">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J4">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.3758692601483333</v>
+        <v>0.161491891167</v>
       </c>
       <c r="R4">
-        <v>2.25521556089</v>
+        <v>0.968951347002</v>
       </c>
       <c r="S4">
-        <v>0.02435533753359167</v>
+        <v>0.03016748649872042</v>
       </c>
       <c r="T4">
-        <v>0.02452172367605168</v>
+        <v>0.03280651424755923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H5">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I5">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J5">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>1.65159325473625</v>
+        <v>0.909670226556</v>
       </c>
       <c r="R5">
-        <v>6.606373018945</v>
+        <v>3.638680906224</v>
       </c>
       <c r="S5">
-        <v>0.1070188904818398</v>
+        <v>0.1699309115746103</v>
       </c>
       <c r="T5">
-        <v>0.07183333446296411</v>
+        <v>0.1231975551318501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H6">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I6">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J6">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>1.0952051528825</v>
+        <v>0.022640010952</v>
       </c>
       <c r="R6">
-        <v>6.571230917295001</v>
+        <v>0.135840065712</v>
       </c>
       <c r="S6">
-        <v>0.07096640772500383</v>
+        <v>0.004229266372384325</v>
       </c>
       <c r="T6">
-        <v>0.07145122247287262</v>
+        <v>0.004599239234207814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H7">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I7">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J7">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>0.9127448975708333</v>
+        <v>0.186169398999</v>
       </c>
       <c r="R7">
-        <v>5.476469385424999</v>
+        <v>1.117016393994</v>
       </c>
       <c r="S7">
-        <v>0.05914346401625995</v>
+        <v>0.03477736739716179</v>
       </c>
       <c r="T7">
-        <v>0.05954750903578862</v>
+        <v>0.03781966386414008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J8">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N8">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O8">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P8">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q8">
-        <v>0.4257410597323333</v>
+        <v>0.3445654098936667</v>
       </c>
       <c r="R8">
-        <v>2.554446358394</v>
+        <v>2.067392459362</v>
       </c>
       <c r="S8">
-        <v>0.02758689872004413</v>
+        <v>0.0643665281010552</v>
       </c>
       <c r="T8">
-        <v>0.02777536162490563</v>
+        <v>0.06999726083585903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J9">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P9">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q9">
-        <v>0.03374373116922222</v>
+        <v>0.03374373116922223</v>
       </c>
       <c r="R9">
-        <v>0.303693580523</v>
+        <v>0.3036935805230001</v>
       </c>
       <c r="S9">
-        <v>0.002186504855291581</v>
+        <v>0.00630349639915529</v>
       </c>
       <c r="T9">
-        <v>0.003302163302224125</v>
+        <v>0.01028238188341103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J10">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N10">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O10">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P10">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q10">
-        <v>0.09103398636022222</v>
+        <v>0.06414756703700002</v>
       </c>
       <c r="R10">
-        <v>0.819305877242</v>
+        <v>0.5773281033330001</v>
       </c>
       <c r="S10">
-        <v>0.005898762415305283</v>
+        <v>0.01198308378538515</v>
       </c>
       <c r="T10">
-        <v>0.008908590680336026</v>
+        <v>0.01954703165036347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J11">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N11">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O11">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P11">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q11">
-        <v>0.4000090823201666</v>
+        <v>0.3613378443826667</v>
       </c>
       <c r="R11">
-        <v>2.400054493921</v>
+        <v>2.168027066296</v>
       </c>
       <c r="S11">
-        <v>0.02591953439492547</v>
+        <v>0.0674997020786535</v>
       </c>
       <c r="T11">
-        <v>0.02609660651870051</v>
+        <v>0.07340452238350305</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J12">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N12">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O12">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P12">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q12">
-        <v>0.2652541761723334</v>
+        <v>0.008993031227555556</v>
       </c>
       <c r="R12">
-        <v>2.387287585551</v>
+        <v>0.08093728104800002</v>
       </c>
       <c r="S12">
-        <v>0.0171877715946296</v>
+        <v>0.001679942851491551</v>
       </c>
       <c r="T12">
-        <v>0.02595778759394857</v>
+        <v>0.002740354375970991</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J13">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N13">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O13">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P13">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q13">
-        <v>0.2210630540072222</v>
+        <v>0.07394992972233334</v>
       </c>
       <c r="R13">
-        <v>1.989567486065</v>
+        <v>0.6655493675010001</v>
       </c>
       <c r="S13">
-        <v>0.01432430333469603</v>
+        <v>0.01381421376862099</v>
       </c>
       <c r="T13">
-        <v>0.0216332420608561</v>
+        <v>0.02253400531918608</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H14">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I14">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J14">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N14">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O14">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P14">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q14">
-        <v>0.2433992996516667</v>
+        <v>0.331784391495</v>
       </c>
       <c r="R14">
-        <v>1.46039579791</v>
+        <v>1.99070634897</v>
       </c>
       <c r="S14">
-        <v>0.01577163318999991</v>
+        <v>0.06197897045221355</v>
       </c>
       <c r="T14">
-        <v>0.01587937882083582</v>
+        <v>0.06740084154096963</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H15">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I15">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J15">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P15">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q15">
-        <v>0.01929153964944444</v>
+        <v>0.032492069695</v>
       </c>
       <c r="R15">
-        <v>0.173623856845</v>
+        <v>0.292428627255</v>
       </c>
       <c r="S15">
-        <v>0.001250040930507229</v>
+        <v>0.006069679825755204</v>
       </c>
       <c r="T15">
-        <v>0.001887871082018979</v>
+        <v>0.009900975891223504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H16">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I16">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J16">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N16">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O16">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P16">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q16">
-        <v>0.05204480051444444</v>
+        <v>0.061768131345</v>
       </c>
       <c r="R16">
-        <v>0.46840320463</v>
+        <v>0.5559131821050001</v>
       </c>
       <c r="S16">
-        <v>0.003372365920260427</v>
+        <v>0.01153859339274522</v>
       </c>
       <c r="T16">
-        <v>0.005093106908317485</v>
+        <v>0.01882197056184703</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H17">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I17">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J17">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N17">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O17">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P17">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q17">
-        <v>0.2286881386358333</v>
+        <v>0.34793468346</v>
       </c>
       <c r="R17">
-        <v>1.372128831815</v>
+        <v>2.08760810076</v>
       </c>
       <c r="S17">
-        <v>0.01481838872433055</v>
+        <v>0.06499592511961973</v>
       </c>
       <c r="T17">
-        <v>0.01491962216172034</v>
+        <v>0.07068171700550989</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H18">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I18">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J18">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N18">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O18">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P18">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q18">
-        <v>0.1516477662516667</v>
+        <v>0.008659451320000001</v>
       </c>
       <c r="R18">
-        <v>1.364829896265</v>
+        <v>0.07793506188</v>
       </c>
       <c r="S18">
-        <v>0.009826375617460643</v>
+        <v>0.001617628469730921</v>
       </c>
       <c r="T18">
-        <v>0.01484025835996661</v>
+        <v>0.00263870598442478</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H19">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I19">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J19">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N19">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O19">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P19">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q19">
-        <v>0.1263833762194444</v>
+        <v>0.071206893465</v>
       </c>
       <c r="R19">
-        <v>1.137450385975</v>
+        <v>0.640862041185</v>
       </c>
       <c r="S19">
-        <v>0.008189309722334635</v>
+        <v>0.01330180098640253</v>
       </c>
       <c r="T19">
-        <v>0.01236788382618727</v>
+        <v>0.0216981479512946</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H20">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I20">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J20">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N20">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O20">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P20">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q20">
-        <v>0.7245699047265001</v>
+        <v>0.165519683914</v>
       </c>
       <c r="R20">
-        <v>2.898279618906</v>
+        <v>0.662078735656</v>
       </c>
       <c r="S20">
-        <v>0.04695022037538261</v>
+        <v>0.03091989816742218</v>
       </c>
       <c r="T20">
-        <v>0.03151397728148783</v>
+        <v>0.02241649752746535</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H21">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I21">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J21">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.456959</v>
       </c>
       <c r="O21">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P21">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q21">
-        <v>0.0574285508045</v>
+        <v>0.01620955428733333</v>
       </c>
       <c r="R21">
-        <v>0.344571304827</v>
+        <v>0.097257325724</v>
       </c>
       <c r="S21">
-        <v>0.003721218751319633</v>
+        <v>0.003028025163243173</v>
       </c>
       <c r="T21">
-        <v>0.003746640662735476</v>
+        <v>0.003292914398556822</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H22">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I22">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J22">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N22">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O22">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P22">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q22">
-        <v>0.154930996943</v>
+        <v>0.030814715334</v>
       </c>
       <c r="R22">
-        <v>0.9295859816580001</v>
+        <v>0.184888292004</v>
       </c>
       <c r="S22">
-        <v>0.01003912031399825</v>
+        <v>0.005756341709064815</v>
       </c>
       <c r="T22">
-        <v>0.01010770365842672</v>
+        <v>0.006259901907978457</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H23">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I23">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J23">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N23">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O23">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P23">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q23">
-        <v>0.6807765801322501</v>
+        <v>0.173576697112</v>
       </c>
       <c r="R23">
-        <v>2.723106320529</v>
+        <v>0.694306788448</v>
       </c>
       <c r="S23">
-        <v>0.0441125283497294</v>
+        <v>0.03242498820701635</v>
       </c>
       <c r="T23">
-        <v>0.02960925859618036</v>
+        <v>0.02350766694104134</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H24">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I24">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J24">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N24">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O24">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P24">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q24">
-        <v>0.4514368270665001</v>
+        <v>0.004320003237333334</v>
       </c>
       <c r="R24">
-        <v>2.708620962399001</v>
+        <v>0.025920019424</v>
       </c>
       <c r="S24">
-        <v>0.02925191672753241</v>
+        <v>0.0008069980380743274</v>
       </c>
       <c r="T24">
-        <v>0.02945175438435579</v>
+        <v>0.0008775935852315942</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H25">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I25">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J25">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N25">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O25">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P25">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q25">
-        <v>0.3762278321975001</v>
+        <v>0.035523498998</v>
       </c>
       <c r="R25">
-        <v>2.257366993185</v>
+        <v>0.213140993988</v>
       </c>
       <c r="S25">
-        <v>0.0243785720574368</v>
+        <v>0.006635965859742561</v>
       </c>
       <c r="T25">
-        <v>0.02454511692907841</v>
+        <v>0.007216474880437751</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H26">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I26">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J26">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N26">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O26">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P26">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q26">
-        <v>1.043256719453667</v>
+        <v>0.2750500874893334</v>
       </c>
       <c r="R26">
-        <v>6.259540316721999</v>
+        <v>1.650300524936</v>
       </c>
       <c r="S26">
-        <v>0.06760028613793592</v>
+        <v>0.05138072098137578</v>
       </c>
       <c r="T26">
-        <v>0.0680621048593628</v>
+        <v>0.05587546562743526</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H27">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I27">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J27">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.456959</v>
       </c>
       <c r="O27">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P27">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q27">
-        <v>0.08268728955544444</v>
+        <v>0.02693600676044445</v>
       </c>
       <c r="R27">
-        <v>0.744185605999</v>
+        <v>0.242424060844</v>
       </c>
       <c r="S27">
-        <v>0.005357918458311598</v>
+        <v>0.005031779703631325</v>
       </c>
       <c r="T27">
-        <v>0.008091782493200276</v>
+        <v>0.008207933691033337</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H28">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I28">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J28">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N28">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O28">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P28">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q28">
-        <v>0.2230741334384445</v>
+        <v>0.05120593483600001</v>
       </c>
       <c r="R28">
-        <v>2.007667200946</v>
+        <v>0.460853413524</v>
       </c>
       <c r="S28">
-        <v>0.0144546159820643</v>
+        <v>0.009565522681395471</v>
       </c>
       <c r="T28">
-        <v>0.02183004639948528</v>
+        <v>0.01560346050768244</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H29">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I29">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J29">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N29">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O29">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P29">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q29">
-        <v>0.9802018232288333</v>
+        <v>0.2884387197813333</v>
       </c>
       <c r="R29">
-        <v>5.881210939372999</v>
+        <v>1.730632318688</v>
       </c>
       <c r="S29">
-        <v>0.06351449503042329</v>
+        <v>0.05388178392011841</v>
       </c>
       <c r="T29">
-        <v>0.06394840122465409</v>
+        <v>0.05859531956479867</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H30">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I30">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J30">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N30">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O30">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P30">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q30">
-        <v>0.6499918091736667</v>
+        <v>0.007178706727111112</v>
       </c>
       <c r="R30">
-        <v>5.849926282563001</v>
+        <v>0.064608360544</v>
       </c>
       <c r="S30">
-        <v>0.04211775631837276</v>
+        <v>0.001341018033186866</v>
       </c>
       <c r="T30">
-        <v>0.06360823254060503</v>
+        <v>0.0021874938378034</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H31">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I31">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J31">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N31">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O31">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P31">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q31">
-        <v>0.5417037216494445</v>
+        <v>0.05903069215866667</v>
       </c>
       <c r="R31">
-        <v>4.875333494845</v>
+        <v>0.531276229428</v>
       </c>
       <c r="S31">
-        <v>0.03510097361717839</v>
+        <v>0.01102722617115897</v>
       </c>
       <c r="T31">
-        <v>0.05301115461530802</v>
+        <v>0.01798781873212386</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H32">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I32">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J32">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N32">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O32">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P32">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q32">
-        <v>0.3779535560663332</v>
+        <v>0.09575394645666667</v>
       </c>
       <c r="R32">
-        <v>2.267721336398</v>
+        <v>0.57452367874</v>
       </c>
       <c r="S32">
-        <v>0.02449039441635655</v>
+        <v>0.01788731227342869</v>
       </c>
       <c r="T32">
-        <v>0.02465770321462886</v>
+        <v>0.01945208013845203</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H33">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I33">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J33">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.456959</v>
       </c>
       <c r="O33">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P33">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q33">
-        <v>0.02995615033788888</v>
+        <v>0.009377306412222222</v>
       </c>
       <c r="R33">
-        <v>0.269605353041</v>
+        <v>0.08439575771000001</v>
       </c>
       <c r="S33">
-        <v>0.00194107959879021</v>
+        <v>0.001751727362536982</v>
       </c>
       <c r="T33">
-        <v>0.002931510443394917</v>
+        <v>0.002857450620522185</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H34">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I34">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J34">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N34">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O34">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P34">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q34">
-        <v>0.08081583413488888</v>
+        <v>0.01782646349</v>
       </c>
       <c r="R34">
-        <v>0.7273425072139998</v>
+        <v>0.16043817141</v>
       </c>
       <c r="S34">
-        <v>0.00523665307888495</v>
+        <v>0.00333007182446322</v>
       </c>
       <c r="T34">
-        <v>0.007908641767578811</v>
+        <v>0.005432075792556435</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H35">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I35">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J35">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N35">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O35">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P35">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q35">
-        <v>0.3551098764511666</v>
+        <v>0.1004149679866667</v>
       </c>
       <c r="R35">
-        <v>2.130659258707</v>
+        <v>0.6024898079200001</v>
       </c>
       <c r="S35">
-        <v>0.0230101841769849</v>
+        <v>0.01875801422050734</v>
       </c>
       <c r="T35">
-        <v>0.02316738075770246</v>
+        <v>0.02039895040003066</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.06156333333333334</v>
+      </c>
+      <c r="H36">
+        <v>0.18469</v>
+      </c>
+      <c r="I36">
+        <v>0.04603291668837169</v>
+      </c>
+      <c r="J36">
+        <v>0.05516424422685531</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G36">
-        <v>0.1966663333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.5899989999999999</v>
-      </c>
-      <c r="I36">
-        <v>0.08265329866371803</v>
-      </c>
-      <c r="J36">
-        <v>0.1009143885347377</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N36">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O36">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P36">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q36">
-        <v>0.2354805975463333</v>
+        <v>0.002499142995555556</v>
       </c>
       <c r="R36">
-        <v>2.119325377917</v>
+        <v>0.02249228696</v>
       </c>
       <c r="S36">
-        <v>0.01525852216164062</v>
+        <v>0.0004668523108620332</v>
       </c>
       <c r="T36">
-        <v>0.02304414362785577</v>
+        <v>0.0007615382701066698</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H37">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I37">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J37">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N37">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O37">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P37">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q37">
-        <v>0.1962497284838889</v>
+        <v>0.02055051786333334</v>
       </c>
       <c r="R37">
-        <v>1.766247556355</v>
+        <v>0.18495466077</v>
       </c>
       <c r="S37">
-        <v>0.01271646523106081</v>
+        <v>0.00383893869657343</v>
       </c>
       <c r="T37">
-        <v>0.0192050087235769</v>
+        <v>0.006262149005187321</v>
       </c>
     </row>
   </sheetData>
